--- a/data/trans_camb/P9_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 15,63</t>
+          <t>0,68; 15,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 21,99</t>
+          <t>5,14; 23,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 29,74</t>
+          <t>8,16; 28,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 20,23</t>
+          <t>-0,98; 20,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 17,42</t>
+          <t>-4,33; 16,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 14,24</t>
+          <t>-2,28; 14,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 15,81</t>
+          <t>2,06; 15,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 17,4</t>
+          <t>3,76; 17,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 18,77</t>
+          <t>5,9; 18,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 569,41</t>
+          <t>-10,86; 518,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 795,04</t>
+          <t>35,54; 925,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,85; 1014,51</t>
+          <t>57,33; 993,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 185,23</t>
+          <t>-7,18; 171,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 160,92</t>
+          <t>-21,74; 148,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 138,11</t>
+          <t>-11,81; 139,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 208,09</t>
+          <t>13,45; 188,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 222,24</t>
+          <t>26,27; 207,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,2; 225,64</t>
+          <t>41,54; 240,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,85</t>
+          <t>0,63; 8,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,39</t>
+          <t>-0,42; 6,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,76</t>
+          <t>1,95; 8,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,94</t>
+          <t>4,94; 13,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 16,39</t>
+          <t>7,78; 16,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,21</t>
+          <t>3,95; 11,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,68</t>
+          <t>3,71; 9,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,7</t>
+          <t>4,71; 10,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,52</t>
+          <t>4,02; 9,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 107,52</t>
+          <t>4,71; 112,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 91,81</t>
+          <t>-4,84; 87,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 122,99</t>
+          <t>17,85; 124,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 136,44</t>
+          <t>34,04; 134,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 163,51</t>
+          <t>54,26; 166,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 123,88</t>
+          <t>28,89; 119,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 106,67</t>
+          <t>32,9; 106,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,76; 117,68</t>
+          <t>40,42; 114,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,89; 104,18</t>
+          <t>34,17; 103,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,81</t>
+          <t>-0,13; 5,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,24</t>
+          <t>-2,39; 3,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,1</t>
+          <t>-0,76; 5,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,05</t>
+          <t>2,87; 9,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,42</t>
+          <t>-1,46; 5,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,16</t>
+          <t>0,91; 7,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,92</t>
+          <t>2,4; 7,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,3</t>
+          <t>-1,2; 3,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,31</t>
+          <t>0,84; 5,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 70,73</t>
+          <t>-1,4; 62,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 36,34</t>
+          <t>-22,11; 35,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 61,51</t>
+          <t>-7,02; 64,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,05; 69,67</t>
+          <t>15,71; 68,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 37,49</t>
+          <t>-8,24; 36,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 49,98</t>
+          <t>5,52; 51,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 58,82</t>
+          <t>16,48; 60,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 27,3</t>
+          <t>-8,38; 27,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 45,34</t>
+          <t>6,36; 45,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,36</t>
+          <t>-2,2; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,77</t>
+          <t>-3,76; 2,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 10,69</t>
+          <t>3,3; 10,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,77</t>
+          <t>-3,05; 5,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,21</t>
+          <t>-3,3; 5,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 3,92</t>
+          <t>-7,05; 3,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,45</t>
+          <t>-1,79; 3,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,16</t>
+          <t>-2,17; 2,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,15</t>
+          <t>-0,29; 6,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 59,49</t>
+          <t>-20,85; 64,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 39,26</t>
+          <t>-35,04; 39,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,03; 147,19</t>
+          <t>32,32; 155,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 30,48</t>
+          <t>-15,9; 32,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 33,73</t>
+          <t>-16,36; 32,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 23,36</t>
+          <t>-35,63; 23,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 28,85</t>
+          <t>-12,33; 28,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 26,71</t>
+          <t>-15,28; 24,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 51,01</t>
+          <t>-2,04; 50,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,18</t>
+          <t>0,33; 5,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,44</t>
+          <t>-0,9; 4,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,1</t>
+          <t>2,62; 8,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,46</t>
+          <t>-1,52; 5,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,51</t>
+          <t>-2,86; 4,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,83</t>
+          <t>1,04; 7,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,85</t>
+          <t>0,27; 4,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,6</t>
+          <t>-1,05; 3,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,99</t>
+          <t>2,43; 7,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,04; 77,78</t>
+          <t>3,1; 74,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 55,3</t>
+          <t>-9,19; 59,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,48; 103,55</t>
+          <t>24,67; 105,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 33,08</t>
+          <t>-7,5; 35,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 27,38</t>
+          <t>-14,08; 25,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,28; 48,07</t>
+          <t>5,02; 46,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,08; 37,69</t>
+          <t>1,74; 37,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 27,62</t>
+          <t>-7,15; 27,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,58; 56,0</t>
+          <t>16,8; 58,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,43; 4,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,0; 2,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,77</t>
+          <t>3,4; 6,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,69; 6,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,16; 5,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,85</t>
+          <t>1,82; 5,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,74; 5,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,19; 3,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,91</t>
+          <t>3,16; 5,87</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,46; 54,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>0,02; 34,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36,05; 81,27</t>
+          <t>34,92; 81,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,98; 42,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>7,43; 32,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,0; 37,67</t>
+          <t>10,66; 37,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>20,62; 42,48</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>9,18; 29,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>24,42; 48,63</t>
+          <t>23,85; 48,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 15,5</t>
+          <t>0,56; 15,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 23,23</t>
+          <t>5,8; 22,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 28,68</t>
+          <t>9,16; 28,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 20,42</t>
+          <t>0,15; 20,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 16,8</t>
+          <t>-3,5; 16,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 14,8</t>
+          <t>-1,16; 15,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 15,32</t>
+          <t>2,24; 15,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 17,0</t>
+          <t>3,84; 17,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 18,08</t>
+          <t>5,39; 17,84</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 518,77</t>
+          <t>-6,65; 515,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,54; 925,75</t>
+          <t>42,3; 807,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,33; 993,5</t>
+          <t>72,88; 976,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 171,23</t>
+          <t>-1,34; 198,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 148,11</t>
+          <t>-19,17; 152,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 139,0</t>
+          <t>-7,15; 141,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 188,72</t>
+          <t>15,02; 187,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,27; 207,7</t>
+          <t>22,92; 203,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,54; 240,41</t>
+          <t>36,2; 222,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 8,04</t>
+          <t>0,33; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 6,41</t>
+          <t>-0,33; 6,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,99</t>
+          <t>1,58; 8,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 13,69</t>
+          <t>4,94; 13,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 16,85</t>
+          <t>7,6; 16,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,8</t>
+          <t>4,42; 12,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,5</t>
+          <t>3,93; 9,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,2</t>
+          <t>4,5; 10,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,36</t>
+          <t>4,01; 9,28</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 112,53</t>
+          <t>2,19; 105,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 87,23</t>
+          <t>-5,21; 89,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 124,89</t>
+          <t>14,65; 122,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 134,7</t>
+          <t>34,84; 137,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,26; 166,33</t>
+          <t>54,55; 165,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 119,14</t>
+          <t>30,78; 117,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 106,56</t>
+          <t>33,61; 106,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,42; 114,1</t>
+          <t>38,93; 114,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,17; 103,7</t>
+          <t>35,13; 104,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,47</t>
+          <t>-0,21; 5,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,02</t>
+          <t>-2,51; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,43</t>
+          <t>-1,03; 5,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,98</t>
+          <t>2,5; 9,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,36</t>
+          <t>-1,86; 5,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,34</t>
+          <t>0,67; 7,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,16</t>
+          <t>2,16; 7,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,22</t>
+          <t>-1,34; 3,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,34</t>
+          <t>0,56; 5,22</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 62,79</t>
+          <t>-2,04; 64,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 35,56</t>
+          <t>-22,92; 34,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 64,55</t>
+          <t>-9,05; 62,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 68,82</t>
+          <t>13,95; 68,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 36,81</t>
+          <t>-10,36; 37,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 51,85</t>
+          <t>2,69; 49,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 60,31</t>
+          <t>15,86; 59,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 27,08</t>
+          <t>-9,37; 27,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 45,78</t>
+          <t>4,06; 43,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,56</t>
+          <t>-2,2; 4,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,77</t>
+          <t>-3,34; 2,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,89</t>
+          <t>3,7; 10,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,01</t>
+          <t>-2,69; 5,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 5,15</t>
+          <t>-3,35; 4,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,92</t>
+          <t>-7,43; 3,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,47</t>
+          <t>-1,68; 3,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,92</t>
+          <t>-2,17; 2,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 6,13</t>
+          <t>-0,78; 6,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 64,46</t>
+          <t>-22,21; 58,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,04; 39,82</t>
+          <t>-32,53; 39,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,32; 155,92</t>
+          <t>34,73; 155,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 32,32</t>
+          <t>-14,28; 36,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 32,71</t>
+          <t>-16,71; 30,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 23,32</t>
+          <t>-38,72; 24,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 28,36</t>
+          <t>-11,91; 28,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 24,07</t>
+          <t>-15,05; 24,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 50,85</t>
+          <t>-4,35; 51,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,95</t>
+          <t>0,34; 6,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,75</t>
+          <t>-1,21; 4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,61</t>
+          <t>2,29; 8,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 5,66</t>
+          <t>-1,59; 5,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,17</t>
+          <t>-2,94; 4,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,69</t>
+          <t>0,74; 7,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,92</t>
+          <t>0,31; 4,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,6</t>
+          <t>-1,1; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,42</t>
+          <t>2,35; 6,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,1; 74,25</t>
+          <t>2,62; 73,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 59,0</t>
+          <t>-11,36; 60,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,67; 105,62</t>
+          <t>20,61; 99,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 35,03</t>
+          <t>-7,95; 32,32</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 25,15</t>
+          <t>-14,32; 26,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,02; 46,82</t>
+          <t>3,72; 46,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,74; 37,49</t>
+          <t>2,12; 38,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 27,33</t>
+          <t>-7,42; 28,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,8; 58,17</t>
+          <t>15,15; 53,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,51</t>
+          <t>1,44; 4,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,86</t>
+          <t>-0,1; 2,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,71</t>
+          <t>3,37; 6,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,52</t>
+          <t>2,52; 6,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,0</t>
+          <t>1,05; 5,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,77</t>
+          <t>1,61; 5,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,07</t>
+          <t>2,62; 5,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,6</t>
+          <t>1,17; 3,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,87</t>
+          <t>3,2; 5,84</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,46; 54,07</t>
+          <t>14,19; 54,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,02; 34,44</t>
+          <t>-1,05; 33,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>34,92; 81,32</t>
+          <t>34,51; 79,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,98; 42,75</t>
+          <t>14,58; 41,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,43; 32,63</t>
+          <t>6,07; 32,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>10,66; 37,55</t>
+          <t>9,66; 37,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,62; 42,48</t>
+          <t>19,45; 40,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,18; 29,79</t>
+          <t>8,76; 29,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,85; 48,5</t>
+          <t>23,78; 48,23</t>
         </is>
       </c>
     </row>
